--- a/data/trans_dic/P1419-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1419-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.02374609344933038</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.03458460801469296</v>
+        <v>0.03458460801469295</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.07916125925809156</v>
@@ -685,7 +685,7 @@
         <v>0.0371235005198119</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.07277772721426466</v>
+        <v>0.07277772721426465</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.04817093186101046</v>
@@ -697,7 +697,7 @@
         <v>0.02972781502672503</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05253784363295161</v>
+        <v>0.0525378436329516</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01536246173280859</v>
+        <v>0.01503156528763816</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01110539016022398</v>
+        <v>0.01200777429015759</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02126690103135366</v>
+        <v>0.0214583344421478</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05344341096163701</v>
+        <v>0.05110083628123546</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01583415110688944</v>
+        <v>0.01564034751092294</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01824645340375841</v>
+        <v>0.01916227344463296</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05331085118904556</v>
+        <v>0.05479419938589923</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03423908881584534</v>
+        <v>0.03436849597895654</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.006729353478429375</v>
+        <v>0.00780118151183089</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01834193529467637</v>
+        <v>0.01785089125601853</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04142052289083053</v>
+        <v>0.04171454042233255</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04650702243983407</v>
+        <v>0.04690091154902146</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01382260500104558</v>
+        <v>0.01374927833175199</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04235507937407034</v>
+        <v>0.04401977125927176</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05274223459755353</v>
+        <v>0.05215644896612794</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1138617950631385</v>
+        <v>0.119450278507799</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05400782216252095</v>
+        <v>0.05355619569964368</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06665082339669072</v>
+        <v>0.07058139420330596</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0943849464190071</v>
+        <v>0.09518963424951567</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06624904242334739</v>
+        <v>0.06697926961021375</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02411502477665798</v>
+        <v>0.02632751723757681</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04624805740059628</v>
+        <v>0.04618514637890179</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06585814560567553</v>
+        <v>0.06594541295886315</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.009190450053116668</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03176625371294545</v>
+        <v>0.03176625371294544</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.06520021801758845</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01249482073366478</v>
+        <v>0.01133264435876077</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002575014555168406</v>
+        <v>0.002500837070312653</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002534683839999688</v>
+        <v>0.002546048012469332</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01907536400135136</v>
+        <v>0.01929735528281851</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04194333904309119</v>
+        <v>0.0425962116926147</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03119910481984716</v>
+        <v>0.03265165634629465</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01127373243683309</v>
+        <v>0.01185150188346843</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06538661710886749</v>
+        <v>0.06385598607808671</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03128252536971515</v>
+        <v>0.03191530976737748</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01793795453573317</v>
+        <v>0.01864061175203056</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.009140641727085995</v>
+        <v>0.009017774533466244</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04447775248978525</v>
+        <v>0.04492797079243425</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04571800302907795</v>
+        <v>0.044042209642406</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02861684270796131</v>
+        <v>0.02410883526008456</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02682571594905792</v>
+        <v>0.02710634514693483</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04771556532272556</v>
+        <v>0.04888623707227067</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09561708610266706</v>
+        <v>0.09560686780932172</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08268205458718407</v>
+        <v>0.08403806950227585</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05235359031683134</v>
+        <v>0.04837940857950608</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1064731264844739</v>
+        <v>0.1062908808146262</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06206406915424257</v>
+        <v>0.06457199594881688</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04465887074546456</v>
+        <v>0.04399374205077762</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03142946778487964</v>
+        <v>0.03115783798058003</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.0689032089899121</v>
+        <v>0.07155733947412725</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02371745743548477</v>
+        <v>0.02239706255085026</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.006248373380421887</v>
+        <v>0.006812562286646242</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01186767804077063</v>
+        <v>0.01146432630028329</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04130835441146552</v>
+        <v>0.03952877470555137</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07116946162715085</v>
+        <v>0.07266882325561806</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05155508947329139</v>
+        <v>0.05119371280188777</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05815691057115353</v>
+        <v>0.05950203815605905</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1458422100750195</v>
+        <v>0.1466337593850695</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04082464762389591</v>
+        <v>0.04107984427733878</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02256524477888687</v>
+        <v>0.02197355385358533</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02885698169089255</v>
+        <v>0.02819087362517438</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07755721530338006</v>
+        <v>0.0758309211651875</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05613842946670747</v>
+        <v>0.05504035879073838</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02581262272067374</v>
+        <v>0.02676975438682618</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03802231946834253</v>
+        <v>0.03939104549618933</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08534531654975627</v>
+        <v>0.08280468833023989</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1729782714235849</v>
+        <v>0.1785304863856967</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1206234618926989</v>
+        <v>0.1219389407521925</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1614238007224992</v>
+        <v>0.1671476378679526</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2405439485005043</v>
+        <v>0.2371154647421017</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0758414824815367</v>
+        <v>0.0782298752846078</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.0477703159149231</v>
+        <v>0.04713293255760596</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06014032778553215</v>
+        <v>0.06094206299235044</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1195869806052232</v>
+        <v>0.1176798738839193</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.02747519347853541</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.07388613868458292</v>
+        <v>0.07388613868458291</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0213871489509485</v>
+        <v>0.0206537710264769</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01189000637234764</v>
+        <v>0.01132019889566449</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.007484522914540693</v>
+        <v>0.0071761085894512</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04016379679056679</v>
+        <v>0.04002596040818302</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08388412599255199</v>
+        <v>0.08399703319754845</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0455622859259733</v>
+        <v>0.04642451419100802</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03304057816855532</v>
+        <v>0.03446321887846666</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.08846637458678651</v>
+        <v>0.08759521099648709</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04845259453198716</v>
+        <v>0.04840720468250879</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02855883273536629</v>
+        <v>0.02860654231034535</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02038160891689571</v>
+        <v>0.02071269936036788</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06343029606009958</v>
+        <v>0.06420861148826239</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04027640257087486</v>
+        <v>0.04045151067266747</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03159718812286208</v>
+        <v>0.03039325015397925</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02141888656578888</v>
+        <v>0.02025599136396705</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06518466145197754</v>
+        <v>0.06546928889822209</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1296516337595127</v>
+        <v>0.1319849144562514</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08154569756428635</v>
+        <v>0.08363473660136303</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.065562681110392</v>
+        <v>0.06798982262180668</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1207041881244031</v>
+        <v>0.1213724102095702</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06899319333510502</v>
+        <v>0.06976928507220075</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04694980056158028</v>
+        <v>0.04700998386746712</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03636390751405808</v>
+        <v>0.03587094712351262</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08436070774060668</v>
+        <v>0.08434638549801769</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02936585707744954</v>
+        <v>0.03109862199285188</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.002025813155478969</v>
+        <v>0.002037538101605184</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.009133961678444545</v>
+        <v>0.009562620079421819</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01410659411577389</v>
+        <v>0.01457325277832398</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0759151958818863</v>
+        <v>0.07407165473664878</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08091603042317855</v>
+        <v>0.08197203609934912</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06055442632157394</v>
+        <v>0.061146972280795</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.133272295580113</v>
+        <v>0.1318579648246033</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06490360616225384</v>
+        <v>0.06424225145077704</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05024128233125923</v>
+        <v>0.05104898351043921</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04091209416386601</v>
+        <v>0.04059076786570975</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08860630863249444</v>
+        <v>0.08809025188906462</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07998553671506371</v>
+        <v>0.08107289401168735</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02151742645437608</v>
+        <v>0.01863547793194383</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0314939463581781</v>
+        <v>0.03108994336318558</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03889850815848764</v>
+        <v>0.03860674219804088</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1262223168999788</v>
+        <v>0.1264297542380875</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1271621165270646</v>
+        <v>0.1248430627676728</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.105195687404474</v>
+        <v>0.102359383232887</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1711061475233339</v>
+        <v>0.1705840142896732</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1021846169731059</v>
+        <v>0.1031819522271861</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.07858241510317283</v>
+        <v>0.07977430453544754</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.06580205579895421</v>
+        <v>0.06522437630630043</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1129719319871541</v>
+        <v>0.1137710041089166</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.07055726364217324</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.09039213508343125</v>
+        <v>0.09039213508343123</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.1066357777017642</v>
@@ -1398,28 +1398,28 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1121963353649938</v>
+        <v>0.1125181613388749</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.09402536671601153</v>
+        <v>0.09512310720226079</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.05293794419494365</v>
+        <v>0.05559403416416445</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.07477263906714819</v>
+        <v>0.07612931486914047</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.09166394356278243</v>
+        <v>0.09170491324341339</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.0759157392688356</v>
+        <v>0.07547978592868025</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.04433486071599666</v>
+        <v>0.04302495196338826</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.05944165836933227</v>
+        <v>0.05870375075056786</v>
       </c>
     </row>
     <row r="21">
@@ -1430,38 +1430,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02196579758741858</v>
+        <v>0.02403253783698686</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.01544734624239347</v>
+        <v>0.01528617285320456</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.0134836581141067</v>
+        <v>0.01299770383802565</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1521399854278903</v>
+        <v>0.1508094429479171</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1321016682689604</v>
+        <v>0.1330897978630247</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.08899929150281223</v>
+        <v>0.08781136743535153</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1081542191259624</v>
+        <v>0.1098413665292262</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1236076538317276</v>
+        <v>0.1226944539443716</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1087431664321224</v>
+        <v>0.1066255640825338</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.07261960622685411</v>
+        <v>0.06959269314612172</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.08663666664752259</v>
+        <v>0.08616097874959185</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>0.01545939633775237</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.03911826531202872</v>
+        <v>0.03911826531202871</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1078520632664838</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02445981577955185</v>
+        <v>0.02468349840314114</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.008497089932029824</v>
+        <v>0.008590340223750374</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01162287628386952</v>
+        <v>0.01130015985648921</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03333489851868359</v>
+        <v>0.03326052700305419</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.09751062946958011</v>
+        <v>0.09756566938292216</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.07515285586244308</v>
+        <v>0.07527957640257206</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.05264434624241551</v>
+        <v>0.05317978399891214</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1008472718055619</v>
+        <v>0.101125870298127</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.06325788936647557</v>
+        <v>0.06346047051134322</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.04353939140496658</v>
+        <v>0.04394093591027021</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.0339369207559772</v>
+        <v>0.03426268141192293</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.07000502702426903</v>
+        <v>0.07017828668482436</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0373487703589759</v>
+        <v>0.03682483893230083</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01673606377622232</v>
+        <v>0.01653477243437079</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02051175349853253</v>
+        <v>0.02026770560561123</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.04577872360839919</v>
+        <v>0.04634319845784593</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1184092978770024</v>
+        <v>0.1186242489396685</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.09439938434153251</v>
+        <v>0.09441429898566303</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.06942774606740268</v>
+        <v>0.07115500413911362</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1177322111770045</v>
+        <v>0.1183741067089139</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0764829922188858</v>
+        <v>0.07554418047259676</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.05468002916747458</v>
+        <v>0.05443120575013788</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.04409882230183002</v>
+        <v>0.04386420653424403</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.08050071161085445</v>
+        <v>0.08069315655553422</v>
       </c>
     </row>
     <row r="25">
@@ -1870,40 +1870,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7278</v>
+        <v>7122</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4765</v>
+        <v>5152</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>11710</v>
+        <v>11815</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>16390</v>
+        <v>15672</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4979</v>
+        <v>4918</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6333</v>
+        <v>6650</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>26038</v>
+        <v>26762</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>26722</v>
+        <v>26823</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>5058</v>
+        <v>5864</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>14236</v>
+        <v>13855</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>43037</v>
+        <v>43343</v>
       </c>
     </row>
     <row r="7">
@@ -1914,40 +1914,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>22034</v>
+        <v>22221</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6043</v>
+        <v>6011</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>18174</v>
+        <v>18889</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>29041</v>
+        <v>28718</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>34919</v>
+        <v>36633</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>16983</v>
+        <v>16841</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>23132</v>
+        <v>24496</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>46099</v>
+        <v>46492</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>51705</v>
+        <v>52274</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>18126</v>
+        <v>19789</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>35895</v>
+        <v>35846</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>68429</v>
+        <v>68519</v>
       </c>
     </row>
     <row r="8">
@@ -2050,40 +2050,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4585</v>
+        <v>4158</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1078</v>
+        <v>1047</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9217</v>
+        <v>9325</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>15597</v>
+        <v>15840</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>10546</v>
+        <v>11037</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4197</v>
+        <v>4412</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>27625</v>
+        <v>26979</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>23111</v>
+        <v>23579</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>13576</v>
+        <v>14107</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>6851</v>
+        <v>6759</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>40284</v>
+        <v>40691</v>
       </c>
     </row>
     <row r="11">
@@ -2094,40 +2094,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16775</v>
+        <v>16161</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11985</v>
+        <v>10097</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>10119</v>
+        <v>10225</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>23057</v>
+        <v>23622</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>35557</v>
+        <v>35553</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>27947</v>
+        <v>28406</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>19490</v>
+        <v>18010</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>44984</v>
+        <v>44907</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>45853</v>
+        <v>47706</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>33798</v>
+        <v>33295</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>23556</v>
+        <v>23353</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>62406</v>
+        <v>64810</v>
       </c>
     </row>
     <row r="12">
@@ -2230,40 +2230,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>12864</v>
+        <v>12148</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3933</v>
+        <v>4288</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6194</v>
+        <v>5983</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>19446</v>
+        <v>18608</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>11941</v>
+        <v>12193</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>13411</v>
+        <v>13317</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>9661</v>
+        <v>9885</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>27345</v>
+        <v>27493</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>28992</v>
+        <v>29174</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>20073</v>
+        <v>19546</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>19855</v>
+        <v>19396</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>51051</v>
+        <v>49915</v>
       </c>
     </row>
     <row r="15">
@@ -2274,40 +2274,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>30449</v>
+        <v>29853</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16247</v>
+        <v>16849</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>19844</v>
+        <v>20559</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>40176</v>
+        <v>38980</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>29023</v>
+        <v>29954</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>31378</v>
+        <v>31720</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>26816</v>
+        <v>27767</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>45101</v>
+        <v>44458</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>53860</v>
+        <v>55557</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>42494</v>
+        <v>41927</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>41379</v>
+        <v>41930</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>78717</v>
+        <v>77462</v>
       </c>
     </row>
     <row r="16">
@@ -2410,40 +2410,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>26484</v>
+        <v>25576</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>13781</v>
+        <v>13120</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8604</v>
+        <v>8250</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>45459</v>
+        <v>45303</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>59917</v>
+        <v>59998</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>34842</v>
+        <v>35502</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>27287</v>
+        <v>28462</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>76126</v>
+        <v>75376</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>94610</v>
+        <v>94521</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>54940</v>
+        <v>55031</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>40264</v>
+        <v>40918</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>126375</v>
+        <v>127926</v>
       </c>
     </row>
     <row r="19">
@@ -2454,40 +2454,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>49876</v>
+        <v>50092</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>36621</v>
+        <v>35226</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>24624</v>
+        <v>23287</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>73779</v>
+        <v>74101</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>92608</v>
+        <v>94275</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>62360</v>
+        <v>63957</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>54147</v>
+        <v>56151</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>103867</v>
+        <v>104442</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>134717</v>
+        <v>136233</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>90319</v>
+        <v>90435</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>71837</v>
+        <v>70864</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>168076</v>
+        <v>168048</v>
       </c>
     </row>
     <row r="20">
@@ -2590,40 +2590,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10294</v>
+        <v>10902</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5670</v>
+        <v>5936</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>7998</v>
+        <v>8263</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>43177</v>
+        <v>42128</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>61516</v>
+        <v>62319</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>44704</v>
+        <v>45141</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>110633</v>
+        <v>109459</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>59666</v>
+        <v>59058</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>63849</v>
+        <v>64875</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>55597</v>
+        <v>55161</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>123792</v>
+        <v>123071</v>
       </c>
     </row>
     <row r="23">
@@ -2634,40 +2634,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>28039</v>
+        <v>28421</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>10987</v>
+        <v>9515</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>19548</v>
+        <v>19298</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>22055</v>
+        <v>21889</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>71789</v>
+        <v>71907</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>96674</v>
+        <v>94911</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>77660</v>
+        <v>75566</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>142040</v>
+        <v>141606</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>93939</v>
+        <v>94856</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>99866</v>
+        <v>101381</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>89422</v>
+        <v>88637</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>157833</v>
+        <v>158950</v>
       </c>
     </row>
     <row r="24">
@@ -2780,28 +2780,28 @@
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>140106</v>
+        <v>140508</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>104307</v>
+        <v>105525</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>57280</v>
+        <v>60154</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>63078</v>
+        <v>64222</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>141800</v>
+        <v>141864</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>104478</v>
+        <v>103878</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>60702</v>
+        <v>58908</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>64246</v>
+        <v>63448</v>
       </c>
     </row>
     <row r="27">
@@ -2812,38 +2812,38 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6550</v>
+        <v>7167</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>4436</v>
+        <v>4389</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>3199</v>
+        <v>3083</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>189986</v>
+        <v>188325</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>146547</v>
+        <v>147643</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>96299</v>
+        <v>95014</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>91238</v>
+        <v>92662</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>191216</v>
+        <v>189803</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>149656</v>
+        <v>146742</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>99429</v>
+        <v>95284</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>93639</v>
+        <v>93125</v>
       </c>
     </row>
     <row r="28">
@@ -2946,40 +2946,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>79988</v>
+        <v>80720</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>29076</v>
+        <v>29395</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>39352</v>
+        <v>38259</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>114693</v>
+        <v>114437</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>329403</v>
+        <v>329589</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>266561</v>
+        <v>267010</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>185919</v>
+        <v>187810</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>366341</v>
+        <v>367353</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>420558</v>
+        <v>421905</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>303418</v>
+        <v>306217</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>234752</v>
+        <v>237006</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>495163</v>
+        <v>496389</v>
       </c>
     </row>
     <row r="31">
@@ -2990,40 +2990,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>122138</v>
+        <v>120424</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>57269</v>
+        <v>56581</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>69447</v>
+        <v>68621</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>157507</v>
+        <v>159449</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>400001</v>
+        <v>400727</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>334827</v>
+        <v>334879</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>245191</v>
+        <v>251291</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>427678</v>
+        <v>430009</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>508483</v>
+        <v>502241</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>381056</v>
+        <v>379322</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>305046</v>
+        <v>303423</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>569402</v>
+        <v>570763</v>
       </c>
     </row>
     <row r="32">
